--- a/ingredients/ingredients_separator.xlsx
+++ b/ingredients/ingredients_separator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41678316-699B-4C01-8569-70AEE792DC75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA05C54-A02F-456D-BEF4-321A71693AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5AAABA1-FE0F-4DCB-879E-AD7ED5AF8D0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5AAABA1-FE0F-4DCB-879E-AD7ED5AF8D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Separator_clean</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>separator_original</t>
+  </si>
+  <si>
+    <t>separator_clean</t>
   </si>
 </sst>
 </file>
@@ -483,191 +492,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F383AE8-CDD4-4230-B5D6-6F07888BA05D}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ingredients/ingredients_separator.xlsx
+++ b/ingredients/ingredients_separator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA05C54-A02F-456D-BEF4-321A71693AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131ABB17-3C1D-474B-81AC-066D0E62FC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5AAABA1-FE0F-4DCB-879E-AD7ED5AF8D0F}"/>
+    <workbookView xWindow="28680" yWindow="1230" windowWidth="29040" windowHeight="16440" xr2:uid="{C5AAABA1-FE0F-4DCB-879E-AD7ED5AF8D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Separator_clean</t>
   </si>
@@ -119,16 +119,7 @@
     <t>\[</t>
   </si>
   <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t>ー</t>
-  </si>
-  <si>
     <t xml:space="preserve">   (</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>id</t>
@@ -492,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F383AE8-CDD4-4230-B5D6-6F07888BA05D}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +497,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,28 +713,6 @@
       </c>
       <c r="C20" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
